--- a/exercise/leetcodeXiaoXiang2/leetcodeRecords.xlsx
+++ b/exercise/leetcodeXiaoXiang2/leetcodeRecords.xlsx
@@ -48,7 +48,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,8 +79,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -390,23 +389,23 @@
   <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>3</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>43018</v>
       </c>
     </row>
@@ -414,10 +413,10 @@
       <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>43018</v>
       </c>
     </row>
@@ -425,10 +424,10 @@
       <c r="A3">
         <v>21</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>43018</v>
       </c>
     </row>
@@ -436,10 +435,10 @@
       <c r="A4">
         <v>23</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>43018</v>
       </c>
     </row>
@@ -447,10 +446,10 @@
       <c r="A5">
         <v>24</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>43018</v>
       </c>
     </row>
@@ -461,6 +460,7 @@
       <c r="B6">
         <v>0</v>
       </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
@@ -469,6 +469,7 @@
       <c r="B7">
         <v>0</v>
       </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
@@ -477,6 +478,7 @@
       <c r="B8">
         <v>0</v>
       </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
@@ -485,6 +487,7 @@
       <c r="B9">
         <v>0</v>
       </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
@@ -493,6 +496,7 @@
       <c r="B10">
         <v>0</v>
       </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
@@ -501,6 +505,7 @@
       <c r="B11">
         <v>0</v>
       </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
@@ -509,6 +514,7 @@
       <c r="B12">
         <v>0</v>
       </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
@@ -517,13 +523,17 @@
       <c r="B13">
         <v>0</v>
       </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>76</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43018</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -533,6 +543,7 @@
       <c r="B15">
         <v>0</v>
       </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
@@ -541,422 +552,474 @@
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>86</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>92</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>109</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>114</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>117</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>120</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>126</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>127</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>133</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>134</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>135</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>136</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>137</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>138</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>141</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>142</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>155</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>160</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>174</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>198</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>199</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>200</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>206</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>207</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>208</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>212</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>213</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>215</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>224</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>225</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>230</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>232</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>236</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>241</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>260</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>290</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>295</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>307</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>321</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>322</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>402</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>407</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>417</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>455</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>459</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>468</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>473</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>491</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>502</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>538</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>547</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>0</v>
       </c>
       <c r="B68" s="1">
         <f>SUM(B1:B67)/67</f>
-        <v>7.4626865671641784E-2</v>
+        <v>8.9552238805970144E-2</v>
       </c>
     </row>
   </sheetData>

--- a/exercise/leetcodeXiaoXiang2/leetcodeRecords.xlsx
+++ b/exercise/leetcodeXiaoXiang2/leetcodeRecords.xlsx
@@ -389,7 +389,7 @@
   <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -467,36 +467,44 @@
         <v>33</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43019</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>34</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43019</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>39</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43019</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>46</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43019</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
@@ -1019,7 +1027,7 @@
       </c>
       <c r="B68" s="1">
         <f>SUM(B1:B67)/67</f>
-        <v>8.9552238805970144E-2</v>
+        <v>0.14925373134328357</v>
       </c>
     </row>
   </sheetData>

--- a/exercise/leetcodeXiaoXiang2/leetcodeRecords.xlsx
+++ b/exercise/leetcodeXiaoXiang2/leetcodeRecords.xlsx
@@ -53,12 +53,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -76,11 +82,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -388,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -458,9 +465,11 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43019</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
@@ -587,7 +596,7 @@
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
@@ -596,7 +605,7 @@
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
@@ -605,7 +614,7 @@
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
@@ -614,7 +623,7 @@
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
@@ -623,7 +632,7 @@
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
@@ -632,7 +641,7 @@
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
@@ -641,7 +650,7 @@
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
@@ -650,7 +659,7 @@
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
@@ -659,7 +668,7 @@
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
@@ -668,7 +677,7 @@
       <c r="B28">
         <v>0</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
@@ -677,7 +686,7 @@
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30">
@@ -686,7 +695,7 @@
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31">
@@ -695,7 +704,7 @@
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32">
@@ -704,7 +713,7 @@
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
@@ -1027,7 +1036,7 @@
       </c>
       <c r="B68" s="1">
         <f>SUM(B1:B67)/67</f>
-        <v>0.14925373134328357</v>
+        <v>0.16417910447761194</v>
       </c>
     </row>
   </sheetData>

--- a/exercise/leetcodeXiaoXiang2/leetcodeRecords.xlsx
+++ b/exercise/leetcodeXiaoXiang2/leetcodeRecords.xlsx
@@ -1,59 +1,194 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
   <si>
     <t>percentage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -66,8 +201,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -75,32 +396,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -149,7 +752,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,7 +787,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,80 +990,80 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.3727272727273" customWidth="1"/>
+    <col min="3" max="3" width="11.6272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1">
         <v>3</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
       <c r="C1" s="2">
         <v>43018</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>43018</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>21</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <v>43018</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>23</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="2">
         <v>43018</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>24</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="2">
         <v>43018</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>30</v>
       </c>
@@ -471,7 +1074,7 @@
         <v>43019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>33</v>
       </c>
@@ -482,7 +1085,7 @@
         <v>43019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>34</v>
       </c>
@@ -493,7 +1096,7 @@
         <v>43019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>39</v>
       </c>
@@ -504,7 +1107,7 @@
         <v>43019</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>46</v>
       </c>
@@ -515,25 +1118,29 @@
         <v>43019</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>51</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>53</v>
       </c>
       <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>43019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>72</v>
       </c>
@@ -542,7 +1149,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>76</v>
       </c>
@@ -553,16 +1160,18 @@
         <v>43018</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>78</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>43019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>81</v>
       </c>
@@ -571,7 +1180,7 @@
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>86</v>
       </c>
@@ -580,7 +1189,7 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>92</v>
       </c>
@@ -589,133 +1198,133 @@
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>109</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>114</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>117</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>120</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>126</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>127</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>133</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>134</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>135</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>136</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>137</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>138</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>141</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>142</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>155</v>
       </c>
@@ -724,7 +1333,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>160</v>
       </c>
@@ -733,7 +1342,7 @@
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>174</v>
       </c>
@@ -742,7 +1351,7 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>198</v>
       </c>
@@ -751,7 +1360,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>199</v>
       </c>
@@ -760,7 +1369,7 @@
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>200</v>
       </c>
@@ -769,7 +1378,7 @@
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>206</v>
       </c>
@@ -778,7 +1387,7 @@
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>207</v>
       </c>
@@ -787,7 +1396,7 @@
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>208</v>
       </c>
@@ -796,7 +1405,7 @@
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>212</v>
       </c>
@@ -805,7 +1414,7 @@
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>213</v>
       </c>
@@ -814,7 +1423,7 @@
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>215</v>
       </c>
@@ -823,7 +1432,7 @@
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>224</v>
       </c>
@@ -832,7 +1441,7 @@
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>225</v>
       </c>
@@ -841,7 +1450,7 @@
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>230</v>
       </c>
@@ -850,7 +1459,7 @@
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>232</v>
       </c>
@@ -859,7 +1468,7 @@
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>236</v>
       </c>
@@ -868,7 +1477,7 @@
       </c>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>241</v>
       </c>
@@ -877,7 +1486,7 @@
       </c>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>260</v>
       </c>
@@ -886,7 +1495,7 @@
       </c>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>290</v>
       </c>
@@ -895,7 +1504,7 @@
       </c>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>295</v>
       </c>
@@ -904,7 +1513,7 @@
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>307</v>
       </c>
@@ -913,7 +1522,7 @@
       </c>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>321</v>
       </c>
@@ -922,7 +1531,7 @@
       </c>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>322</v>
       </c>
@@ -931,7 +1540,7 @@
       </c>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>402</v>
       </c>
@@ -940,7 +1549,7 @@
       </c>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>407</v>
       </c>
@@ -949,7 +1558,7 @@
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>417</v>
       </c>
@@ -958,7 +1567,7 @@
       </c>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>455</v>
       </c>
@@ -967,7 +1576,7 @@
       </c>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>459</v>
       </c>
@@ -976,7 +1585,7 @@
       </c>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>468</v>
       </c>
@@ -985,7 +1594,7 @@
       </c>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>473</v>
       </c>
@@ -994,7 +1603,7 @@
       </c>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>491</v>
       </c>
@@ -1003,7 +1612,7 @@
       </c>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>502</v>
       </c>
@@ -1012,7 +1621,7 @@
       </c>
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>538</v>
       </c>
@@ -1021,7 +1630,7 @@
       </c>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>547</v>
       </c>
@@ -1030,21 +1639,21 @@
       </c>
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="4">
         <f>SUM(B1:B67)/67</f>
-        <v>0.16417910447761194</v>
+        <v>0.208955223880597</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A1:B68">
     <sortCondition ref="A1"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/exercise/leetcodeXiaoXiang2/leetcodeRecords.xlsx
+++ b/exercise/leetcodeXiaoXiang2/leetcodeRecords.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
+  <si>
+    <t>？</t>
+  </si>
   <si>
     <t>percentage</t>
   </si>
@@ -24,10 +27,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -44,9 +47,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -60,9 +129,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -70,89 +138,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,8 +152,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,14 +162,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,19 +206,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,151 +350,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,21 +397,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -436,20 +424,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,6 +456,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -480,17 +489,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,10 +503,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -512,133 +515,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -998,8 +1001,8 @@
   <sheetPr/>
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1015,9 +1018,7 @@
       <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
-        <v>43018</v>
-      </c>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
@@ -1026,9 +1027,7 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
-        <v>43018</v>
-      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
@@ -1037,9 +1036,7 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>43018</v>
-      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
@@ -1048,9 +1045,7 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
-        <v>43018</v>
-      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
@@ -1059,9 +1054,7 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
-        <v>43018</v>
-      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
@@ -1070,9 +1063,7 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="2">
-        <v>43019</v>
-      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
@@ -1081,9 +1072,7 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
-        <v>43019</v>
-      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
@@ -1092,9 +1081,7 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="2">
-        <v>43019</v>
-      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
@@ -1103,9 +1090,7 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="2">
-        <v>43019</v>
-      </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
@@ -1114,9 +1099,7 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="2">
-        <v>43019</v>
-      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
@@ -1125,9 +1108,7 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="2">
-        <v>43019</v>
-      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
@@ -1136,18 +1117,18 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="2">
-        <v>43019</v>
-      </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
         <v>72</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
@@ -1156,9 +1137,7 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="2">
-        <v>43018</v>
-      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
@@ -1167,16 +1146,14 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="2">
-        <v>43019</v>
-      </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
         <v>81</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2"/>
     </row>
@@ -1185,7 +1162,7 @@
         <v>86</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2"/>
     </row>
@@ -1194,7 +1171,7 @@
         <v>92</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2"/>
     </row>
@@ -1641,11 +1618,11 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B68" s="4">
         <f>SUM(B1:B67)/67</f>
-        <v>0.208955223880597</v>
+        <v>0.26865671641791</v>
       </c>
     </row>
   </sheetData>

--- a/exercise/leetcodeXiaoXiang2/leetcodeRecords.xlsx
+++ b/exercise/leetcodeXiaoXiang2/leetcodeRecords.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_space\Algorithm_training_java\src\AlgorithmTraining\exercise\leetcodeXiaoXiang2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>percentage</t>
   </si>
@@ -22,14 +27,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,151 +43,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,194 +70,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -396,249 +79,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -647,63 +91,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -990,22 +391,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.3727272727273" customWidth="1"/>
-    <col min="3" max="3" width="11.6272727272727" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1015,9 +416,7 @@
       <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
-        <v>43018</v>
-      </c>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
@@ -1026,9 +425,7 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
-        <v>43018</v>
-      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
@@ -1037,9 +434,7 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>43018</v>
-      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
@@ -1048,9 +443,7 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
-        <v>43018</v>
-      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
@@ -1059,9 +452,7 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
-        <v>43018</v>
-      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
@@ -1070,9 +461,7 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="2">
-        <v>43019</v>
-      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
@@ -1081,9 +470,7 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
-        <v>43019</v>
-      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
@@ -1092,9 +479,7 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="2">
-        <v>43019</v>
-      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
@@ -1103,9 +488,7 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="2">
-        <v>43019</v>
-      </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
@@ -1114,9 +497,7 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="2">
-        <v>43019</v>
-      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
@@ -1125,9 +506,7 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="2">
-        <v>43019</v>
-      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
@@ -1136,16 +515,14 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="2">
-        <v>43019</v>
-      </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
         <v>72</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2"/>
     </row>
@@ -1156,9 +533,7 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="2">
-        <v>43018</v>
-      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
@@ -1167,16 +542,14 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="2">
-        <v>43019</v>
-      </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
         <v>81</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2"/>
     </row>
@@ -1185,7 +558,7 @@
         <v>86</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2"/>
     </row>
@@ -1194,7 +567,7 @@
         <v>92</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2"/>
     </row>
@@ -1639,21 +1012,21 @@
       </c>
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>0</v>
       </c>
       <c r="B68" s="4">
         <f>SUM(B1:B67)/67</f>
-        <v>0.208955223880597</v>
+        <v>0.26865671641791045</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A1:B68">
     <sortCondition ref="A1"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/exercise/leetcodeXiaoXiang2/leetcodeRecords.xlsx
+++ b/exercise/leetcodeXiaoXiang2/leetcodeRecords.xlsx
@@ -153,7 +153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,7 +188,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -399,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -576,7 +576,7 @@
         <v>109</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -585,7 +585,7 @@
         <v>114</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3"/>
     </row>
@@ -594,7 +594,7 @@
         <v>117</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="3"/>
     </row>
@@ -603,7 +603,7 @@
         <v>120</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="3"/>
     </row>
@@ -612,7 +612,7 @@
         <v>126</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="3"/>
     </row>
@@ -621,7 +621,7 @@
         <v>127</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="3"/>
     </row>
@@ -630,7 +630,7 @@
         <v>133</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="3"/>
     </row>
@@ -639,7 +639,7 @@
         <v>134</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="3"/>
     </row>
@@ -648,7 +648,7 @@
         <v>135</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="3"/>
     </row>
@@ -657,7 +657,7 @@
         <v>136</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="3"/>
     </row>
@@ -666,7 +666,7 @@
         <v>137</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="3"/>
     </row>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="B68" s="4">
         <f>SUM(B1:B67)/67</f>
-        <v>0.26865671641791045</v>
+        <v>0.43283582089552236</v>
       </c>
     </row>
   </sheetData>

--- a/exercise/leetcodeXiaoXiang2/leetcodeRecords.xlsx
+++ b/exercise/leetcodeXiaoXiang2/leetcodeRecords.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_space\Algorithm_training_java\src\AlgorithmTraining\exercise\leetcodeXiaoXiang2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7725"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
   <si>
     <t>percentage</t>
   </si>
@@ -27,8 +22,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,21 +44,151 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -70,8 +201,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -79,10 +396,249 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -91,20 +647,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -153,7 +752,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,7 +787,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,22 +990,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="13.3727272727273" customWidth="1"/>
+    <col min="3" max="3" width="11.6272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -675,7 +1274,7 @@
         <v>138</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="3"/>
     </row>
@@ -684,7 +1283,7 @@
         <v>141</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="3"/>
     </row>
@@ -693,7 +1292,7 @@
         <v>142</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="3"/>
     </row>
@@ -702,7 +1301,7 @@
         <v>155</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="2"/>
     </row>
@@ -711,7 +1310,7 @@
         <v>160</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="2"/>
     </row>
@@ -720,7 +1319,7 @@
         <v>174</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="2"/>
     </row>
@@ -729,7 +1328,7 @@
         <v>198</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="2"/>
     </row>
@@ -738,7 +1337,7 @@
         <v>199</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="2"/>
     </row>
@@ -747,7 +1346,7 @@
         <v>200</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="2"/>
     </row>
@@ -756,7 +1355,7 @@
         <v>206</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="2"/>
     </row>
@@ -765,7 +1364,7 @@
         <v>207</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="2"/>
     </row>
@@ -774,7 +1373,7 @@
         <v>208</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="2"/>
     </row>
@@ -783,7 +1382,7 @@
         <v>212</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="2"/>
     </row>
@@ -792,7 +1391,7 @@
         <v>213</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="2"/>
     </row>
@@ -801,7 +1400,7 @@
         <v>215</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" s="2"/>
     </row>
@@ -810,7 +1409,7 @@
         <v>224</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" s="2"/>
     </row>
@@ -819,7 +1418,7 @@
         <v>225</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2"/>
     </row>
@@ -828,7 +1427,7 @@
         <v>230</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="2"/>
     </row>
@@ -837,7 +1436,7 @@
         <v>232</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="2"/>
     </row>
@@ -846,7 +1445,7 @@
         <v>236</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" s="2"/>
     </row>
@@ -855,7 +1454,7 @@
         <v>241</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" s="2"/>
     </row>
@@ -864,7 +1463,7 @@
         <v>260</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" s="2"/>
     </row>
@@ -873,7 +1472,7 @@
         <v>290</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" s="2"/>
     </row>
@@ -882,7 +1481,7 @@
         <v>295</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" s="2"/>
     </row>
@@ -1012,21 +1611,21 @@
       </c>
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>0</v>
       </c>
       <c r="B68" s="4">
         <f>SUM(B1:B67)/67</f>
-        <v>0.43283582089552236</v>
+        <v>0.791044776119403</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A1:B68">
     <sortCondition ref="A1"/>
   </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>